--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Delia-vup-song-list\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84F15B8-5FA4-4766-A8AB-03452CAED124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE86F49-C5E3-442C-B748-A6AF25625BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,10 +1511,6 @@
     <t>闽南语</t>
   </si>
   <si>
-    <t>舰长限定</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>情歌王</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1595,6 +1591,10 @@
   </si>
   <si>
     <t>林子祥</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2200,8 +2200,8 @@
   <dimension ref="A1:F1063"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2844,16 +2844,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2942,7 +2942,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>398</v>
@@ -2964,16 +2964,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3447,10 +3447,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>154</v>
@@ -3532,7 +3532,7 @@
         <v>190</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3694,7 +3694,7 @@
         <v>96</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4188,7 +4188,7 @@
         <v>289</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4289,7 +4289,7 @@
         <v>289</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4423,7 +4423,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>385</v>
@@ -4432,7 +4432,7 @@
         <v>40</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4791,7 +4791,7 @@
         <v>289</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4942,7 +4942,7 @@
         <v>96</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5179,7 +5179,7 @@
         <v>289</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5830,16 +5830,16 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>411</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8150,19 +8150,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<autofilters xmlns="https://web.wps.cn/et/2018/main">
+  <sheetItem sheetStid="1">
+    <filterData filterID="1331040869"/>
+    <filterData filterID="1331220589"/>
+    <autofilterInfo filterID="1331040869">
+      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1062"/>
+    </autofilterInfo>
+  </sheetItem>
+</autofilters>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0">
@@ -8175,16 +8174,17 @@
 </woProps>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+</allowEditUser>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<autofilters xmlns="https://web.wps.cn/et/2018/main">
-  <sheetItem sheetStid="1">
-    <filterData filterID="1331040869"/>
-    <filterData filterID="1331220589"/>
-    <autofilterInfo filterID="1331040869">
-      <autoFilter xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H1062"/>
-    </autofilterInfo>
-  </sheetItem>
-</autofilters>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8194,25 +8194,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5662047-3127-477A-AC3A-1D340467FB41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="16080" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <t>残酷天使的行动纲领</t>
   </si>
   <si>
-    <t>わたしは最強</t>
+    <t>私は最強</t>
   </si>
   <si>
     <t>我就是最强的（ウタ from ONE PIECE FILM RED）</t>
@@ -318,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -449,6 +449,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -458,14 +497,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +534,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,99 +587,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,19 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,49 +632,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +662,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,25 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +764,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,6 +799,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,33 +874,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -869,21 +884,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -907,10 +907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,133 +919,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,9 +1450,9 @@
   <dimension ref="A1:F702"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1652,7 +1652,7 @@
         <v>22792900</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1664,6 +1664,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1825259395</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1765,7 +1768,7 @@
         <v>1823570631</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1777,6 +1780,9 @@
       </c>
       <c r="D19" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1970954338</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1949,7 +1955,7 @@
         <v>22817139</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -1961,6 +1967,9 @@
       </c>
       <c r="D30" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1365924378</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1977,7 +1986,7 @@
         <v>90</v>
       </c>
       <c r="F31" s="7">
-        <v>28310366</v>
+        <v>536622304</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1991,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="7">
-        <v>486971</v>
+        <v>28310366</v>
       </c>
     </row>
     <row r="33" spans="1:6">

--- a/scripts/music.xlsx
+++ b/scripts/music.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
   <si>
     <t>歌名</t>
   </si>
@@ -108,15 +108,6 @@
   </si>
   <si>
     <t>《未闻花名》ED</t>
-  </si>
-  <si>
-    <t>Someone Like You</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>英语</t>
   </si>
   <si>
     <t>TUSNAMI</t>
@@ -355,15 +346,6 @@
     <t>我就是最强的（ウタ from ONE PIECE FILM RED）</t>
   </si>
   <si>
-    <t>爱如潮水</t>
-  </si>
-  <si>
-    <t>张信哲</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
     <t>愛してる</t>
   </si>
   <si>
@@ -394,6 +376,15 @@
     <t>残酷天使的行动纲领</t>
   </si>
   <si>
+    <t>初恋</t>
+  </si>
+  <si>
+    <t>村下孝蔵</t>
+  </si>
+  <si>
+    <t>(アルバム・ヴァージョン)</t>
+  </si>
+  <si>
     <t>地球儀</t>
   </si>
   <si>
@@ -415,12 +406,6 @@
     <t>《百变小樱》OP 打开心扉</t>
   </si>
   <si>
-    <t>分飞</t>
-  </si>
-  <si>
-    <t>徐怀钰</t>
-  </si>
-  <si>
     <t>粉雪</t>
   </si>
   <si>
@@ -511,12 +496,6 @@
     <t>《通灵王》十周年特别谢礼 &lt;限舰长/以上&gt;</t>
   </si>
   <si>
-    <t>慢慢</t>
-  </si>
-  <si>
-    <t>张学友</t>
-  </si>
-  <si>
     <t>猫</t>
   </si>
   <si>
@@ -566,15 +545,6 @@
   </si>
   <si>
     <t>夕晖</t>
-  </si>
-  <si>
-    <t>青藏高原</t>
-  </si>
-  <si>
-    <t>李娜</t>
-  </si>
-  <si>
-    <t>&lt;SC&gt; 1000电池，每周限一次</t>
   </si>
   <si>
     <t>日を落ちるまで</t>
@@ -658,15 +628,6 @@
   </si>
   <si>
     <t>DAZBEE</t>
-  </si>
-  <si>
-    <t>想你的365天</t>
-  </si>
-  <si>
-    <t>李玟</t>
-  </si>
-  <si>
-    <t>《宝莲灯》插曲</t>
   </si>
   <si>
     <t>小さな恋の歌</t>
@@ -762,6 +723,54 @@
       </rPr>
       <t>》原唱</t>
     </r>
+  </si>
+  <si>
+    <t>Someone Like You</t>
+  </si>
+  <si>
+    <t>Adele</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>爱如潮水</t>
+  </si>
+  <si>
+    <t>张信哲</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>分飞</t>
+  </si>
+  <si>
+    <t>徐怀钰</t>
+  </si>
+  <si>
+    <t>慢慢</t>
+  </si>
+  <si>
+    <t>张学友</t>
+  </si>
+  <si>
+    <t>青藏高原</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>&lt;SC&gt; 1000电池，每周限一次</t>
+  </si>
+  <si>
+    <t>想你的365天</t>
+  </si>
+  <si>
+    <t>李玟</t>
+  </si>
+  <si>
+    <t>《宝莲灯》插曲</t>
   </si>
 </sst>
 </file>
@@ -891,31 +900,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,14 +941,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,25 +977,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,8 +1048,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,6 +1067,54 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1086,30 +1143,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1128,49 +1161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,7 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,25 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,13 +1227,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,21 +1262,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1287,16 +1281,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,143 +1347,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1883,9 +1892,9 @@
   <dimension ref="A1:F750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78333333333333" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2078,24 +2087,27 @@
         <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F12" s="6">
-        <v>16435049</v>
+        <v>817062</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" s="6">
-        <v>817062</v>
+        <v>29017078</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2112,7 +2124,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="6">
-        <v>29017078</v>
+        <v>41643682</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2125,25 +2137,26 @@
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="F15" s="6">
-        <v>41643682</v>
+        <v>718563</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F16" s="6">
-        <v>718563</v>
+        <v>1297750125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2156,33 +2169,34 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="F17" s="6">
-        <v>1297750125</v>
+        <v>22740435</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="6">
-        <v>22740435</v>
+        <v>670432</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>8</v>
@@ -2191,7 +2205,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="6">
-        <v>670432</v>
+        <v>1426112299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2208,7 +2222,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="6">
-        <v>1426112299</v>
+        <v>529834566</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2216,61 +2230,62 @@
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" s="6">
-        <v>529834566</v>
+        <v>669138</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="F22" s="6">
-        <v>669138</v>
+        <v>2121944084</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="6">
-        <v>2121944084</v>
+        <v>27615435</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F24" s="6">
-        <v>27615435</v>
+        <v>848332</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2287,7 +2302,7 @@
         <v>64</v>
       </c>
       <c r="F25" s="6">
-        <v>848332</v>
+        <v>1485033549</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2295,30 +2310,31 @@
         <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="F26" s="6">
-        <v>1485033549</v>
+        <v>407422</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F27" s="6">
-        <v>407422</v>
+        <v>1355979244</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2335,7 +2351,7 @@
         <v>71</v>
       </c>
       <c r="F28" s="6">
-        <v>1355979244</v>
+        <v>33471935</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2352,7 +2368,7 @@
         <v>74</v>
       </c>
       <c r="F29" s="6">
-        <v>33471935</v>
+        <v>4938709</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2360,47 +2376,48 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F30" s="6">
-        <v>4938709</v>
+        <v>27969765</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="F31" s="6">
-        <v>27969765</v>
+        <v>4899718</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="6">
-        <v>4899718</v>
+        <v>1293904824</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2408,47 +2425,48 @@
         <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F33" s="6">
-        <v>1293904824</v>
+        <v>22659945</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="F34" s="6">
-        <v>22659945</v>
+        <v>523981</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F35" s="6">
-        <v>523981</v>
+        <v>29027465</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2465,7 +2483,7 @@
         <v>90</v>
       </c>
       <c r="F36" s="6">
-        <v>29027465</v>
+        <v>486806</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2473,64 +2491,65 @@
         <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F37" s="6">
-        <v>486806</v>
+        <v>407442</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="F38" s="6">
-        <v>407442</v>
+        <v>818073</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F39" s="6">
-        <v>818073</v>
+        <v>523556</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F40" s="6">
-        <v>523556</v>
+        <v>1970954338</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2547,7 +2566,7 @@
         <v>102</v>
       </c>
       <c r="F41" s="6">
-        <v>1970954338</v>
+        <v>28661197</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2557,59 +2576,62 @@
       <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="8">
-        <v>186345</v>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="6">
+        <v>518836</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F43" s="6">
-        <v>28661197</v>
+        <v>523584</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="F44" s="6">
+        <v>1823570631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="6">
-        <v>518836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="6">
-        <v>523584</v>
+      <c r="F45" s="8">
+        <v>26130145</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2617,47 +2639,48 @@
         <v>113</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F46" s="6">
-        <v>1823570631</v>
+        <v>2060973088</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="F47" s="6">
-        <v>2060973088</v>
+        <v>28190175</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="6">
-        <v>28190175</v>
+        <v>555959</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2674,7 +2697,7 @@
         <v>122</v>
       </c>
       <c r="F49" s="6">
-        <v>555959</v>
+        <v>804994</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2682,13 +2705,16 @@
         <v>123</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="8">
-        <v>308208</v>
+      <c r="F50" s="6">
+        <v>1970957039</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2705,7 +2731,7 @@
         <v>127</v>
       </c>
       <c r="F51" s="6">
-        <v>804994</v>
+        <v>26562622</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2713,24 +2739,24 @@
         <v>128</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F52" s="6">
-        <v>1970957039</v>
+        <v>30798034</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>8</v>
@@ -2739,7 +2765,7 @@
         <v>132</v>
       </c>
       <c r="F53" s="6">
-        <v>26562622</v>
+        <v>524331</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2747,98 +2773,97 @@
         <v>133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="F54" s="6">
-        <v>30798034</v>
+        <v>669311</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F55" s="6">
-        <v>524331</v>
+        <v>1490098724</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F56" s="6">
-        <v>669311</v>
+        <v>1375305989</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>54</v>
+      <c r="B57" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F57" s="6">
-        <v>1490098724</v>
+        <v>512376195</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F58" s="6">
-        <v>1375305989</v>
+        <v>144</v>
+      </c>
+      <c r="F58" s="8">
+        <v>29593321</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="6">
-        <v>512376195</v>
+      <c r="D59" s="2"/>
+      <c r="F59" s="8">
+        <v>228414</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2851,11 +2876,11 @@
       <c r="C60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="9" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="8">
-        <v>29593321</v>
+        <v>1331357732</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2869,7 +2894,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="8">
-        <v>228414</v>
+        <v>500686349</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2877,44 +2902,50 @@
         <v>152</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="F62" s="8">
-        <v>1331357732</v>
+        <v>523567</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="8">
-        <v>189315</v>
+      <c r="F63" s="6">
+        <v>22773504</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="8">
-        <v>500686349</v>
+      <c r="F64" s="6">
+        <v>413961275</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2922,75 +2953,75 @@
         <v>159</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="8">
-        <v>523567</v>
+        <v>161</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1825259395</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F66" s="6">
-        <v>22773504</v>
+        <v>22792900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F67" s="6">
-        <v>413961275</v>
+        <v>441116287</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F68" s="6">
-        <v>1825259395</v>
+        <v>740530</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>8</v>
@@ -2999,7 +3030,7 @@
         <v>171</v>
       </c>
       <c r="F69" s="6">
-        <v>22792900</v>
+        <v>229083</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3007,30 +3038,33 @@
         <v>172</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F70" s="6">
-        <v>441116287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>2003300733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>176</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1970954342</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3038,109 +3072,106 @@
         <v>177</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="D72" s="2"/>
       <c r="F72" s="6">
-        <v>740530</v>
+        <v>1869068541</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="D73" s="2"/>
       <c r="F73" s="6">
-        <v>229083</v>
+        <v>584017</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="F74" s="6">
-        <v>2003300733</v>
+        <v>22746144</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F75" s="6">
-        <v>1970954342</v>
+        <v>22815818</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="6">
-        <v>1869068541</v>
+        <v>861956</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="6">
-        <v>584017</v>
+        <v>1952087290</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
         <v>191</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F78" s="6">
-        <v>22746144</v>
+        <v>550234</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3157,7 +3188,7 @@
         <v>194</v>
       </c>
       <c r="F79" s="6">
-        <v>22815818</v>
+        <v>760173</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3170,43 +3201,46 @@
       <c r="C80" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
       <c r="F80" s="6">
-        <v>861956</v>
+        <v>724495</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F81" s="6">
-        <v>1952087290</v>
+        <v>29747157</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F82" s="8">
-        <v>106368</v>
+      <c r="F82" s="6">
+        <v>1954437911</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3219,7 +3253,7 @@
         <v>204</v>
       </c>
       <c r="F83" s="6">
-        <v>550234</v>
+        <v>26387275</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3232,76 +3266,73 @@
       <c r="C84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="6">
-        <v>760173</v>
+      <c r="D84" s="2"/>
+      <c r="F84" s="8">
+        <v>1888864514</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" s="6">
-        <v>724495</v>
+      <c r="F85" s="8">
+        <v>2142857204</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="6">
-        <v>29747157</v>
+      <c r="F86" s="8">
+        <v>817772</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="D87" s="2"/>
       <c r="F87" s="6">
-        <v>1954437911</v>
+        <v>16435049</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F88" s="6">
-        <v>26387275</v>
+      <c r="D88" s="2"/>
+      <c r="F88" s="8">
+        <v>186345</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3311,11 +3342,11 @@
       <c r="B89" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>8</v>
+      <c r="C89" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F89" s="8">
-        <v>1888864514</v>
+        <v>308208</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3325,31 +3356,43 @@
       <c r="B90" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="F90" s="8">
+        <v>189315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F90" s="8">
-        <v>2142857204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F91" s="8">
-        <v>817772</v>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F92" s="8">
+        <v>106368</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5561,9 +5604,9 @@
       <c r="C750" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F91">
-    <sortState ref="A1:F91">
-      <sortCondition ref="A2:A91"/>
+  <autoFilter ref="A1:F92">
+    <sortState ref="A2:F92">
+      <sortCondition ref="C1"/>
     </sortState>
     <extLst/>
   </autoFilter>
